--- a/data/trans_bre/CoPsoQ_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/CoPsoQ_R2-Provincia-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>6.407908412120255</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8.157734702147817</v>
+        <v>8.157734702147829</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0.007732472712576547</v>
@@ -627,7 +627,7 @@
         <v>0.1762347208448285</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.202346389033506</v>
+        <v>0.2023463890335064</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-13.59820086139812</v>
+        <v>-15.3644122592994</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.337085816480286</v>
+        <v>-6.221424532444554</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-12.91005032854834</v>
+        <v>-12.16699927387505</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2827481905023319</v>
+        <v>-0.3183654178338813</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1822363184090097</v>
+        <v>-0.160405783487935</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2446252541244517</v>
+        <v>-0.2423232696618229</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.01850736859853</v>
+        <v>15.07412064406298</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.95790496435666</v>
+        <v>20.22337543800489</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29.15088309339243</v>
+        <v>27.73313869528673</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.452235154726761</v>
+        <v>0.4089369610680945</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6191627524245745</v>
+        <v>0.6856552792981201</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.08418659004892</v>
+        <v>1.012566367351549</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>7.229070471476795</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19.49600028397145</v>
+        <v>19.49600028397144</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.06491255066617493</v>
@@ -709,7 +709,7 @@
         <v>0.1383104012633671</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7349896775296511</v>
+        <v>0.7349896775296507</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-16.56876181020277</v>
+        <v>-16.89587822756373</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.313393265324308</v>
+        <v>-4.660705566419924</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.19984004661833</v>
+        <v>-1.366877900013836</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2495214517725925</v>
+        <v>-0.2543668414737256</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.07461579389153312</v>
+        <v>-0.08319280988995023</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.05502411312819843</v>
+        <v>-0.0475260442343507</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.45074325345862</v>
+        <v>6.91253197329319</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>17.84020803334347</v>
+        <v>19.77794714744528</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>38.86085959156328</v>
+        <v>38.67724157834029</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1551692068604725</v>
+        <v>0.1222388411525647</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4058573141821371</v>
+        <v>0.4305522535122832</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.339310289712829</v>
+        <v>2.427152184677706</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>-2.011694504905664</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18.93471509014224</v>
+        <v>18.93471509014223</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>-0.3086391708476105</v>
@@ -791,7 +791,7 @@
         <v>-0.04681933394082314</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7627441275824519</v>
+        <v>0.7627441275824517</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-31.00838179625277</v>
+        <v>-30.39889664179633</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-16.27695527999075</v>
+        <v>-15.84827465059742</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.049061829048612</v>
+        <v>-5.273570521982477</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.5168861031154067</v>
+        <v>-0.5093654167026173</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3305044866166612</v>
+        <v>-0.3202278097452119</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1717226930477838</v>
+        <v>-0.1604809316326814</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-2.184760544445484</v>
+        <v>-3.754893067575379</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.28882388823012</v>
+        <v>11.6670858773529</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>38.10461114837144</v>
+        <v>38.77656586748477</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>-0.05925773937828441</v>
+        <v>-0.07039391903404782</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3034528166896293</v>
+        <v>0.3067653325044387</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.769637673527435</v>
+        <v>2.905255545239815</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>-2.321207197418051</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3.604072032431676</v>
+        <v>3.604072032431671</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.1118891283435215</v>
@@ -873,7 +873,7 @@
         <v>-0.05160552853148071</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0983372941554137</v>
+        <v>0.09833729415541356</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-19.83492976664875</v>
+        <v>-19.17223142148635</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-16.8541807906844</v>
+        <v>-17.44293262359421</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-23.89457581955404</v>
+        <v>-22.11300937032585</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3193295743267249</v>
+        <v>-0.3121817873712366</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3351391336925451</v>
+        <v>-0.3347824474234049</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4596285894608882</v>
+        <v>-0.4597323818791229</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.229260303770443</v>
+        <v>8.14939646133408</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.63705755185148</v>
+        <v>11.35680018555739</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>26.53887918185909</v>
+        <v>28.71783538683468</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1213801166448012</v>
+        <v>0.1619595498598614</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3538509470195617</v>
+        <v>0.2988124525873253</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.215561650102134</v>
+        <v>1.205088161513601</v>
       </c>
     </row>
     <row r="16">
@@ -955,7 +955,7 @@
         <v>-0.06487246035111487</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>-0.6243694278711284</v>
+        <v>-0.6243694278711283</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.450676277970918</v>
+        <v>-3.405786231827158</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-20.62065216209412</v>
+        <v>-20.5970821704167</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-46.62446976330862</v>
+        <v>-45.83893848013319</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.1240457762358968</v>
+        <v>-0.08043546180469016</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.302578538230921</v>
+        <v>-0.292787710042064</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.8992455657166566</v>
+        <v>-0.8820581926477195</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>29.83787964659236</v>
+        <v>30.61423358591956</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.47638882266989</v>
+        <v>12.93392905436198</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-1.173860730083922</v>
+        <v>-2.505490595401708</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.132033356151242</v>
+        <v>1.274421498168106</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2013899700917464</v>
+        <v>0.2326961573864206</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03339368832560046</v>
+        <v>0.05636630981040318</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>5.226273472727527</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9.05028115266412</v>
+        <v>9.050281152664114</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.3029815258081641</v>
@@ -1037,7 +1037,7 @@
         <v>0.0971410593927869</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1913495321253282</v>
+        <v>0.1913495321253281</v>
       </c>
     </row>
     <row r="20">
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-33.70284805363709</v>
+        <v>-34.91267066186941</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-10.43572024910713</v>
+        <v>-9.664635520279344</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-21.4235211341994</v>
+        <v>-16.26142239547151</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5288559041811987</v>
+        <v>-0.5455795037854979</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1718832227485869</v>
+        <v>-0.1615659892284341</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3661418906977303</v>
+        <v>-0.2919488920916778</v>
       </c>
     </row>
     <row r="21">
@@ -1074,22 +1074,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-0.1588069893950819</v>
+        <v>-0.380777307825126</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>19.86540983933528</v>
+        <v>20.31250150256413</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>31.60100742082086</v>
+        <v>33.92211445021269</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.001706703206368609</v>
+        <v>0.005170828653896921</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4221686329683166</v>
+        <v>0.42604683454704</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8773209002460906</v>
+        <v>1.054710604541856</v>
       </c>
     </row>
     <row r="22">
@@ -1110,7 +1110,7 @@
         <v>2.696173647475253</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10.62489774091967</v>
+        <v>10.62489774091969</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>-0.1842984383513351</v>
@@ -1119,7 +1119,7 @@
         <v>0.05824525200234626</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2953526561227222</v>
+        <v>0.2953526561227226</v>
       </c>
     </row>
     <row r="23">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-21.00212902116155</v>
+        <v>-19.57791441725193</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.230706225145115</v>
+        <v>-5.355143134028314</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.243209194337772</v>
+        <v>-5.228099661051733</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.3578255283161955</v>
+        <v>-0.3380459416239155</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.1051165526011168</v>
+        <v>-0.1077247999883663</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.0869348554509808</v>
+        <v>-0.12083517064448</v>
       </c>
     </row>
     <row r="24">
@@ -1156,22 +1156,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7949776811998732</v>
+        <v>0.7616535311996997</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.29920887880907</v>
+        <v>10.97393752330284</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>24.24029297362891</v>
+        <v>25.07731410447413</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.01592895322231447</v>
+        <v>0.01818864531305931</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.2711903182065536</v>
+        <v>0.2566974109274544</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9119919332088664</v>
+        <v>0.9367595916729949</v>
       </c>
     </row>
     <row r="25">
@@ -1201,7 +1201,7 @@
         <v>-0.0839943831032561</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06739836219079333</v>
+        <v>0.06739836219079334</v>
       </c>
     </row>
     <row r="26">
@@ -1212,22 +1212,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-5.41707264866685</v>
+        <v>-4.333436398658194</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-14.70558758960994</v>
+        <v>-14.38734919404514</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-9.048011294504335</v>
+        <v>-10.31703315428113</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.07197356365681144</v>
+        <v>-0.06030301060894447</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1809441058183931</v>
+        <v>-0.1746401912131349</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1605265000981059</v>
+        <v>-0.1835822163365023</v>
       </c>
     </row>
     <row r="27">
@@ -1238,22 +1238,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>9.621311481239106</v>
+        <v>10.32182420965078</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5889409332391857</v>
+        <v>0.5742058254089035</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>16.4721645163506</v>
+        <v>15.53203998164008</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1410693992917256</v>
+        <v>0.1505449047119451</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.006568572134680652</v>
+        <v>0.007563864297508532</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.380686647175726</v>
+        <v>0.3510687704796307</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>0.2357442505702356</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6.3661794668123</v>
+        <v>6.366179466812288</v>
       </c>
       <c r="F28" s="6" t="n">
         <v>-0.06777471889934621</v>
@@ -1283,7 +1283,7 @@
         <v>0.004292070805408203</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.160252083152017</v>
+        <v>0.1602520831520167</v>
       </c>
     </row>
     <row r="29">
@@ -1294,22 +1294,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-8.215108498362703</v>
+        <v>-8.225024960721125</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.941258483374591</v>
+        <v>-3.740798123975122</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.7155142489335851</v>
+        <v>-0.3613787506374521</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>-0.1378913046487514</v>
+        <v>-0.1361007181835698</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.07124214656327936</v>
+        <v>-0.06590403277502806</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.01821554182627939</v>
+        <v>-0.00845169572815351</v>
       </c>
     </row>
     <row r="30">
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.5593058686665126</v>
+        <v>0.6086087689168992</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.423639785174439</v>
+        <v>4.166076783199526</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13.26594891427784</v>
+        <v>13.06690687954064</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>0.009940844770087035</v>
+        <v>0.01108820930098998</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.08404160451827154</v>
+        <v>0.07774352291759361</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3715089493326593</v>
+        <v>0.35543349544348</v>
       </c>
     </row>
     <row r="31">
